--- a/SODO/A Tuc/BAOCAO-NQ10-4069/Tong khong du dieu kien.xlsx
+++ b/SODO/A Tuc/BAOCAO-NQ10-4069/Tong khong du dieu kien.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SODO\A Tuc\BAOCAO-NQ10-4069\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,7 +336,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -466,7 +461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -501,7 +496,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -678,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,10 +685,14 @@
   <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G104"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3089,5 +3088,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>